--- a/biology/Botanique/Asperula_paui/Asperula_paui.xlsx
+++ b/biology/Botanique/Asperula_paui/Asperula_paui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperula paui est une espèce de plantes de la famille des Rubiaceae. Elle est dédiée au botaniste espagnol Carlos Pau Español.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,19 +551,21 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2015) :
 sous-espèce Asperula paui subsp. dianensis (Font Quer) De la Torre, Alcaraz &amp; M.B.Crespo
 sous-espèce Asperula paui subsp. paui
-Selon World Checklist of Selected Plant Families (WCSP)  (20 août 2015)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (20 août 2015) :
 sous-espèce Asperula paui subsp. dianensis (Font Quer) De la Torre, Alcaraz &amp; M.B.Crespo (1995 publ. 1996)
 sous-espèce Asperula paui subsp. paui
-Selon NCBI  (20 août 2015)[4] :
+Selon NCBI  (20 août 2015) :
 sous-espèce Asperula paui subsp. paui
-Selon The Plant List            (20 août 2015)[1] :
+Selon The Plant List            (20 août 2015) :
 sous-espèce Asperula paui subsp. dianensis (Font Quer) De la Torre, Alcaraz &amp; M.B.Crespo
-Selon Tropicos                                           (20 août 2015)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Asperula paui subsp. dianensis (Font Quer) De la Torre, Alcaraz &amp; M.B. Crespo
 sous-espèce Asperula paui subsp. paui
 variété Asperula paui var. dianensis Font Quer
